--- a/Solution/results/data analysis.xlsx
+++ b/Solution/results/data analysis.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bum71\SIM\omnetpp-5.6.2\omnetpp-5.6.2\MyTest\Solution\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0460EC2-CFC7-4855-BCD3-3946E074CD5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8583774-B59F-481D-B619-9A5E1E9456B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6090" yWindow="435" windowWidth="19035" windowHeight="13950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1185" yWindow="885" windowWidth="24090" windowHeight="14535" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="N=20(Original)" sheetId="1" r:id="rId1"/>
     <sheet name="N=20(Solution)" sheetId="2" r:id="rId2"/>
     <sheet name="N=20(Optimal)" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -595,10 +599,10 @@
                   <c:v>403.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>356.5</c:v>
+                  <c:v>404.85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>345.35</c:v>
+                  <c:v>398.15</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>355.6</c:v>
@@ -2523,6 +2527,312 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="N=30(Original)"/>
+      <sheetName val="N=30(Solution)"/>
+      <sheetName val="N=30(Optimal)"/>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="33">
+          <cell r="B33">
+            <v>350.16666666666669</v>
+          </cell>
+          <cell r="C33">
+            <v>363.13333333333333</v>
+          </cell>
+          <cell r="D33">
+            <v>372.76666666666665</v>
+          </cell>
+          <cell r="E33">
+            <v>371.86666666666667</v>
+          </cell>
+          <cell r="F33">
+            <v>375.76666666666665</v>
+          </cell>
+          <cell r="G33">
+            <v>374.7</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="B2">
+            <v>5</v>
+          </cell>
+          <cell r="C2">
+            <v>7</v>
+          </cell>
+          <cell r="D2">
+            <v>9</v>
+          </cell>
+          <cell r="E2">
+            <v>11</v>
+          </cell>
+          <cell r="F2">
+            <v>13</v>
+          </cell>
+          <cell r="G2">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33">
+            <v>364.06666666666666</v>
+          </cell>
+          <cell r="C33">
+            <v>391.23333333333335</v>
+          </cell>
+          <cell r="D33">
+            <v>412.33333333333331</v>
+          </cell>
+          <cell r="E33">
+            <v>424.2</v>
+          </cell>
+          <cell r="F33">
+            <v>441.1</v>
+          </cell>
+          <cell r="G33">
+            <v>444.8</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="33">
+          <cell r="B33">
+            <v>421.33333333333331</v>
+          </cell>
+          <cell r="C33">
+            <v>436.4</v>
+          </cell>
+          <cell r="D33">
+            <v>442.46666666666664</v>
+          </cell>
+          <cell r="E33">
+            <v>443.86666666666667</v>
+          </cell>
+          <cell r="F33">
+            <v>446.03333333333336</v>
+          </cell>
+          <cell r="G33">
+            <v>449.23333333333335</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="N=15(Original)"/>
+      <sheetName val="N=15(Solution)"/>
+      <sheetName val="N=15(Optimal)"/>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="53">
+          <cell r="B53">
+            <v>373.06666666666666</v>
+          </cell>
+          <cell r="C53">
+            <v>369.55</v>
+          </cell>
+          <cell r="D53">
+            <v>374.16</v>
+          </cell>
+          <cell r="E53">
+            <v>372.76666666666665</v>
+          </cell>
+          <cell r="F53">
+            <v>369.37142857142857</v>
+          </cell>
+          <cell r="G53">
+            <v>367.32499999999999</v>
+          </cell>
+          <cell r="H53">
+            <v>366.86666666666667</v>
+          </cell>
+          <cell r="I53">
+            <v>365.14</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58">
+            <v>5596</v>
+          </cell>
+          <cell r="C58">
+            <v>7391</v>
+          </cell>
+          <cell r="D58">
+            <v>9354</v>
+          </cell>
+          <cell r="E58">
+            <v>11183</v>
+          </cell>
+          <cell r="F58">
+            <v>12928</v>
+          </cell>
+          <cell r="G58">
+            <v>14693</v>
+          </cell>
+          <cell r="H58">
+            <v>16509</v>
+          </cell>
+          <cell r="I58">
+            <v>18257</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="B2">
+            <v>15</v>
+          </cell>
+          <cell r="C2">
+            <v>20</v>
+          </cell>
+          <cell r="D2">
+            <v>25</v>
+          </cell>
+          <cell r="E2">
+            <v>30</v>
+          </cell>
+          <cell r="F2">
+            <v>35</v>
+          </cell>
+          <cell r="G2">
+            <v>40</v>
+          </cell>
+          <cell r="H2">
+            <v>45</v>
+          </cell>
+          <cell r="I2">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53">
+            <v>450.2</v>
+          </cell>
+          <cell r="C53">
+            <v>449</v>
+          </cell>
+          <cell r="D53">
+            <v>433.48</v>
+          </cell>
+          <cell r="E53">
+            <v>412.33333333333331</v>
+          </cell>
+          <cell r="F53">
+            <v>404.4</v>
+          </cell>
+          <cell r="G53">
+            <v>393.125</v>
+          </cell>
+          <cell r="H53">
+            <v>383.28888888888889</v>
+          </cell>
+          <cell r="I53">
+            <v>376.9</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58">
+            <v>6753</v>
+          </cell>
+          <cell r="C58">
+            <v>8980</v>
+          </cell>
+          <cell r="D58">
+            <v>10837</v>
+          </cell>
+          <cell r="E58">
+            <v>12370</v>
+          </cell>
+          <cell r="F58">
+            <v>14154</v>
+          </cell>
+          <cell r="G58">
+            <v>15725</v>
+          </cell>
+          <cell r="H58">
+            <v>17248</v>
+          </cell>
+          <cell r="I58">
+            <v>18845</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="53">
+          <cell r="B53">
+            <v>452.66666666666669</v>
+          </cell>
+          <cell r="C53">
+            <v>452.15</v>
+          </cell>
+          <cell r="D53">
+            <v>446.08</v>
+          </cell>
+          <cell r="E53">
+            <v>442.46666666666664</v>
+          </cell>
+          <cell r="F53">
+            <v>440.57142857142856</v>
+          </cell>
+          <cell r="G53">
+            <v>432.72500000000002</v>
+          </cell>
+          <cell r="H53">
+            <v>430.46666666666664</v>
+          </cell>
+          <cell r="I53">
+            <v>426.56</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58">
+            <v>6790</v>
+          </cell>
+          <cell r="C58">
+            <v>9043</v>
+          </cell>
+          <cell r="D58">
+            <v>11152</v>
+          </cell>
+          <cell r="E58">
+            <v>13274</v>
+          </cell>
+          <cell r="F58">
+            <v>15420</v>
+          </cell>
+          <cell r="G58">
+            <v>17309</v>
+          </cell>
+          <cell r="H58">
+            <v>19371</v>
+          </cell>
+          <cell r="I58">
+            <v>21328</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2788,8 +3098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4481,8 +4791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE54C533-4130-4E2B-8371-1E574B7F2440}">
   <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4592,10 +4902,10 @@
         <v>392</v>
       </c>
       <c r="C3" s="10">
-        <v>352</v>
+        <v>404</v>
       </c>
       <c r="D3" s="10">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="E3" s="10">
         <v>386</v>
@@ -4663,10 +4973,10 @@
         <v>445</v>
       </c>
       <c r="C4" s="1">
-        <v>368</v>
+        <v>405</v>
       </c>
       <c r="D4" s="1">
-        <v>379</v>
+        <v>416</v>
       </c>
       <c r="E4" s="1">
         <v>338</v>
@@ -4734,10 +5044,10 @@
         <v>420</v>
       </c>
       <c r="C5" s="1">
-        <v>322</v>
+        <v>411</v>
       </c>
       <c r="D5" s="1">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="E5" s="1">
         <v>303</v>
@@ -4805,10 +5115,10 @@
         <v>437</v>
       </c>
       <c r="C6" s="1">
-        <v>344</v>
+        <v>425</v>
       </c>
       <c r="D6" s="1">
-        <v>324</v>
+        <v>386</v>
       </c>
       <c r="E6" s="1">
         <v>387</v>
@@ -4876,10 +5186,10 @@
         <v>375</v>
       </c>
       <c r="C7" s="1">
-        <v>391</v>
+        <v>412</v>
       </c>
       <c r="D7" s="1">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="E7" s="1">
         <v>390</v>
@@ -4947,10 +5257,10 @@
         <v>354</v>
       </c>
       <c r="C8" s="1">
-        <v>352</v>
+        <v>404</v>
       </c>
       <c r="D8" s="1">
-        <v>289</v>
+        <v>407</v>
       </c>
       <c r="E8" s="1">
         <v>363</v>
@@ -5018,10 +5328,10 @@
         <v>394</v>
       </c>
       <c r="C9" s="1">
-        <v>362</v>
+        <v>400</v>
       </c>
       <c r="D9" s="1">
-        <v>328</v>
+        <v>401</v>
       </c>
       <c r="E9" s="1">
         <v>362</v>
@@ -5089,10 +5399,10 @@
         <v>402</v>
       </c>
       <c r="C10" s="1">
-        <v>332</v>
+        <v>430</v>
       </c>
       <c r="D10" s="1">
-        <v>344</v>
+        <v>402</v>
       </c>
       <c r="E10" s="1">
         <v>361</v>
@@ -5160,10 +5470,10 @@
         <v>401</v>
       </c>
       <c r="C11" s="1">
-        <v>333</v>
+        <v>392</v>
       </c>
       <c r="D11" s="1">
-        <v>260</v>
+        <v>424</v>
       </c>
       <c r="E11" s="1">
         <v>359</v>
@@ -5231,10 +5541,10 @@
         <v>379</v>
       </c>
       <c r="C12" s="1">
-        <v>343</v>
+        <v>424</v>
       </c>
       <c r="D12" s="1">
-        <v>310</v>
+        <v>369</v>
       </c>
       <c r="E12" s="1">
         <v>370</v>
@@ -5302,10 +5612,10 @@
         <v>425</v>
       </c>
       <c r="C13" s="1">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="D13" s="1">
-        <v>346</v>
+        <v>406</v>
       </c>
       <c r="E13" s="1">
         <v>343</v>
@@ -5373,10 +5683,10 @@
         <v>380</v>
       </c>
       <c r="C14" s="1">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="D14" s="1">
-        <v>333</v>
+        <v>399</v>
       </c>
       <c r="E14" s="1">
         <v>310</v>
@@ -5444,10 +5754,10 @@
         <v>436</v>
       </c>
       <c r="C15" s="1">
-        <v>345</v>
+        <v>399</v>
       </c>
       <c r="D15" s="1">
-        <v>436</v>
+        <v>387</v>
       </c>
       <c r="E15" s="1">
         <v>311</v>
@@ -5515,10 +5825,10 @@
         <v>378</v>
       </c>
       <c r="C16" s="1">
-        <v>339</v>
+        <v>416</v>
       </c>
       <c r="D16" s="1">
-        <v>311</v>
+        <v>390</v>
       </c>
       <c r="E16" s="1">
         <v>331</v>
@@ -5586,10 +5896,10 @@
         <v>402</v>
       </c>
       <c r="C17" s="1">
-        <v>344</v>
+        <v>375</v>
       </c>
       <c r="D17" s="1">
-        <v>289</v>
+        <v>381</v>
       </c>
       <c r="E17" s="1">
         <v>382</v>
@@ -5657,10 +5967,10 @@
         <v>377</v>
       </c>
       <c r="C18" s="1">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="D18" s="1">
-        <v>338</v>
+        <v>418</v>
       </c>
       <c r="E18" s="1">
         <v>361</v>
@@ -5728,10 +6038,10 @@
         <v>415</v>
       </c>
       <c r="C19" s="1">
-        <v>377</v>
+        <v>429</v>
       </c>
       <c r="D19" s="1">
-        <v>389</v>
+        <v>428</v>
       </c>
       <c r="E19" s="1">
         <v>385</v>
@@ -5799,10 +6109,10 @@
         <v>387</v>
       </c>
       <c r="C20" s="1">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="D20" s="1">
-        <v>350</v>
+        <v>397</v>
       </c>
       <c r="E20" s="1">
         <v>361</v>
@@ -5870,10 +6180,10 @@
         <v>446</v>
       </c>
       <c r="C21" s="1">
-        <v>376</v>
+        <v>417</v>
       </c>
       <c r="D21" s="1">
-        <v>390</v>
+        <v>430</v>
       </c>
       <c r="E21" s="1">
         <v>351</v>
@@ -5941,10 +6251,10 @@
         <v>423</v>
       </c>
       <c r="C22" s="15">
-        <v>389</v>
+        <v>420</v>
       </c>
       <c r="D22" s="15">
-        <v>388</v>
+        <v>416</v>
       </c>
       <c r="E22" s="15">
         <v>358</v>
@@ -6014,11 +6324,11 @@
       </c>
       <c r="C23">
         <f t="shared" ref="C23:H23" si="0">AVERAGE(C3:C22)</f>
-        <v>356.5</v>
+        <v>404.85</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>345.35</v>
+        <v>398.15</v>
       </c>
       <c r="E23">
         <f>AVERAGE(E3:E22)</f>
@@ -6102,7 +6412,7 @@
       </c>
       <c r="B24">
         <f>AVERAGE(B23:K23)</f>
-        <v>357.55499999999995</v>
+        <v>367.66999999999996</v>
       </c>
       <c r="M24" s="18" t="s">
         <v>23</v>
@@ -6118,7 +6428,7 @@
       </c>
       <c r="B25">
         <f>_xlfn.STDEV.P(B23:K23)</f>
-        <v>15.797301193558342</v>
+        <v>22.819095074082139</v>
       </c>
       <c r="L25">
         <v>393.9</v>
@@ -6168,7 +6478,7 @@
   <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
